--- a/src/train/input.xlsx
+++ b/src/train/input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">section_name</t>
   </si>
@@ -34,27 +34,44 @@
     <t xml:space="preserve">priority</t>
   </si>
   <si>
+    <t xml:space="preserve">demanded_time_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demanded_time_to</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKM-ELR</t>
   </si>
   <si>
     <t xml:space="preserve">UP</t>
   </si>
   <si>
-    <t xml:space="preserve">DOWN</t>
+    <t xml:space="preserve">22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -76,11 +93,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,16 +144,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,96 +284,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.74"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
